--- a/APM files/133705288/Imports Results/133705288 IMPORT Stop Sell Removal_result.xlsx
+++ b/APM files/133705288/Imports Results/133705288 IMPORT Stop Sell Removal_result.xlsx
@@ -137,12 +137,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Updated</t>
+          <t>Unchanged</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Updated Property Info successfully; </t>
+          <t/>
         </is>
       </c>
     </row>
@@ -164,12 +164,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Updated</t>
+          <t>Unchanged</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Updated Property Info successfully; </t>
+          <t/>
         </is>
       </c>
     </row>
@@ -191,12 +191,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Updated</t>
+          <t>Unchanged</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Updated Property Info successfully; </t>
+          <t/>
         </is>
       </c>
     </row>
